--- a/Final-Project-Plan.xlsx
+++ b/Final-Project-Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenkhoa/Documents/hue-learning/CICD-pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93951058-3FD4-5B4A-8A1F-16F147D94420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B1F98AD-1938-5A4B-80C4-55F75840376B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2420" yWindow="1420" windowWidth="26120" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>Week</t>
   </si>
@@ -184,9 +184,6 @@
     <t>Complete Nano program: Project 3</t>
   </si>
   <si>
-    <t>Sep</t>
-  </si>
-  <si>
     <t>Dec</t>
   </si>
   <si>
@@ -219,6 +216,36 @@
   <si>
     <t>To do</t>
   </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Quarter 1</t>
+  </si>
+  <si>
+    <t>Upgrading management skills</t>
+  </si>
+  <si>
+    <t>Quarter 3</t>
+  </si>
+  <si>
+    <t>Quarter 4</t>
+  </si>
+  <si>
+    <t>Complete Nano program: Cloud Devops with Microsoft</t>
+  </si>
+  <si>
+    <t>Get AZ 204 certificaate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quarter 4</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
 </sst>
 </file>
 
@@ -227,7 +254,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -301,8 +328,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +352,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -346,10 +403,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -364,7 +422,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -384,16 +441,171 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{31278C1B-9904-3A4C-9B70-E110AD80CA54}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -662,74 +874,66 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z994"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="78.6640625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="14.5" style="27"/>
+    <col min="1" max="1" width="25.83203125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="25" customWidth="1"/>
+    <col min="5" max="16384" width="14.5" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>46</v>
+      <c r="A1" s="31" t="s">
+        <v>61</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A2" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E2" s="33" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="16">
-        <v>44805</v>
-      </c>
-      <c r="D2" s="16">
-        <v>44651</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>25</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -754,20 +958,20 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
-        <v>52</v>
+      <c r="A3" s="27" t="s">
+        <v>63</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>48</v>
+      <c r="B3" s="28" t="s">
+        <v>64</v>
       </c>
-      <c r="C3" s="16">
-        <v>44835</v>
+      <c r="C3" s="27">
+        <v>44562</v>
       </c>
-      <c r="D3" s="16">
-        <v>44879</v>
+      <c r="D3" s="27">
+        <v>44651</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>27</v>
+      <c r="E3" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -792,20 +996,20 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
-        <v>51</v>
+      <c r="A4" s="27" t="s">
+        <v>45</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>49</v>
+      <c r="B4" s="28" t="s">
+        <v>44</v>
       </c>
-      <c r="C4" s="16">
-        <v>44880</v>
+      <c r="C4" s="27">
+        <v>44652</v>
       </c>
-      <c r="D4" s="16">
-        <v>44926</v>
+      <c r="D4" s="27">
+        <v>44742</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>27</v>
+      <c r="E4" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -830,16 +1034,20 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
-        <v>59</v>
+      <c r="A5" s="27" t="s">
+        <v>65</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>60</v>
+      <c r="B5" s="29" t="s">
+        <v>68</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="20" t="s">
-        <v>61</v>
+      <c r="C5" s="27">
+        <v>44743</v>
+      </c>
+      <c r="D5" s="27">
+        <v>44834</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -864,44 +1072,47 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>2</v>
+      <c r="A6" s="27" t="s">
+        <v>66</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>2</v>
+      <c r="B6" s="29" t="s">
+        <v>67</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+      <c r="C6" s="27">
+        <v>44835</v>
+      </c>
+      <c r="D6" s="27">
+        <v>44926</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="str">
-        <f>A2&amp;": "&amp;B2</f>
-        <v>Sep: Complete Nano program: Project 1</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -927,10 +1138,10 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="3" t="s">
-        <v>53</v>
+      <c r="A8" s="30" t="s">
+        <v>69</v>
       </c>
+      <c r="B8" s="29"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -957,41 +1168,59 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="3" t="s">
-        <v>56</v>
+      <c r="A9" s="34" t="s">
+        <v>46</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
+      <c r="B9" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="27">
+        <v>44835</v>
+      </c>
+      <c r="D10" s="27">
+        <v>44865</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1015,14 +1244,21 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="str">
-        <f>A3&amp;": "&amp;B3</f>
-        <v>Nov: Complete Nano program: Project 2</v>
+      <c r="A11" s="15" t="s">
+        <v>51</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="15">
+        <v>44866</v>
+      </c>
+      <c r="D11" s="15">
+        <v>44895</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1046,13 +1282,21 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="3" t="s">
-        <v>54</v>
+      <c r="A12" s="15" t="s">
+        <v>50</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="15">
+        <v>44896</v>
+      </c>
+      <c r="D12" s="15">
+        <v>44926</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>27</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1076,13 +1320,17 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="3" t="s">
-        <v>55</v>
+      <c r="A13" s="39" t="s">
+        <v>58</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1106,72 +1354,72 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="str">
-        <f>A4&amp;": "&amp;B4</f>
-        <v>Dec: Complete Nano program: Project 3</v>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>2</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
+      <c r="C14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="3" t="s">
-        <v>58</v>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="str">
+        <f>A10&amp;": "&amp;B10</f>
+        <v>Oct: Complete Nano program: Project 1</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1197,11 +1445,10 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="str">
-        <f>A5&amp;":"&amp;B5</f>
-        <v>Fer:Get certificate AZ-400 Designing and Implementing Microsoft DevOps Solutions from Microsoft</v>
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
+        <v>52</v>
       </c>
-      <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1229,7 +1476,9 @@
     </row>
     <row r="18" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1284,7 +1533,10 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
+      <c r="A20" s="2" t="str">
+        <f>A11&amp;": "&amp;B11</f>
+        <v>Nov: Complete Nano program: Project 2</v>
+      </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1313,7 +1565,9 @@
     </row>
     <row r="21" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1341,7 +1595,9 @@
     </row>
     <row r="22" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1368,7 +1624,10 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
+      <c r="A23" s="2" t="str">
+        <f>A12&amp;": "&amp;B12</f>
+        <v>Dec: Complete Nano program: Project 3</v>
+      </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1397,7 +1656,9 @@
     </row>
     <row r="24" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1424,8 +1685,10 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1452,7 +1715,10 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
+      <c r="A26" s="2" t="str">
+        <f>A13&amp;":"&amp;B13</f>
+        <v>Fer:Get certificate AZ-400 Designing and Implementing Microsoft DevOps Solutions from Microsoft</v>
+      </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1508,7 +1774,7 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1760,7 +2026,7 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="7"/>
+      <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1844,7 +2110,7 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" s="28"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1928,7 +2194,7 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="3"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2096,7 +2362,7 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="7"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2180,7 +2446,7 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="7"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -28583,8 +28849,286 @@
       <c r="Y994" s="3"/>
       <c r="Z994" s="3"/>
     </row>
+    <row r="995" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A995" s="7"/>
+      <c r="B995" s="3"/>
+      <c r="C995" s="3"/>
+      <c r="D995" s="3"/>
+      <c r="E995" s="3"/>
+      <c r="F995" s="3"/>
+      <c r="G995" s="3"/>
+      <c r="H995" s="3"/>
+      <c r="I995" s="3"/>
+      <c r="J995" s="3"/>
+      <c r="K995" s="3"/>
+      <c r="L995" s="3"/>
+      <c r="M995" s="3"/>
+      <c r="N995" s="3"/>
+      <c r="O995" s="3"/>
+      <c r="P995" s="3"/>
+      <c r="Q995" s="3"/>
+      <c r="R995" s="3"/>
+      <c r="S995" s="3"/>
+      <c r="T995" s="3"/>
+      <c r="U995" s="3"/>
+      <c r="V995" s="3"/>
+      <c r="W995" s="3"/>
+      <c r="X995" s="3"/>
+      <c r="Y995" s="3"/>
+      <c r="Z995" s="3"/>
+    </row>
+    <row r="996" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A996" s="7"/>
+      <c r="B996" s="3"/>
+      <c r="C996" s="3"/>
+      <c r="D996" s="3"/>
+      <c r="E996" s="3"/>
+      <c r="F996" s="3"/>
+      <c r="G996" s="3"/>
+      <c r="H996" s="3"/>
+      <c r="I996" s="3"/>
+      <c r="J996" s="3"/>
+      <c r="K996" s="3"/>
+      <c r="L996" s="3"/>
+      <c r="M996" s="3"/>
+      <c r="N996" s="3"/>
+      <c r="O996" s="3"/>
+      <c r="P996" s="3"/>
+      <c r="Q996" s="3"/>
+      <c r="R996" s="3"/>
+      <c r="S996" s="3"/>
+      <c r="T996" s="3"/>
+      <c r="U996" s="3"/>
+      <c r="V996" s="3"/>
+      <c r="W996" s="3"/>
+      <c r="X996" s="3"/>
+      <c r="Y996" s="3"/>
+      <c r="Z996" s="3"/>
+    </row>
+    <row r="997" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A997" s="7"/>
+      <c r="B997" s="3"/>
+      <c r="C997" s="3"/>
+      <c r="D997" s="3"/>
+      <c r="E997" s="3"/>
+      <c r="F997" s="3"/>
+      <c r="G997" s="3"/>
+      <c r="H997" s="3"/>
+      <c r="I997" s="3"/>
+      <c r="J997" s="3"/>
+      <c r="K997" s="3"/>
+      <c r="L997" s="3"/>
+      <c r="M997" s="3"/>
+      <c r="N997" s="3"/>
+      <c r="O997" s="3"/>
+      <c r="P997" s="3"/>
+      <c r="Q997" s="3"/>
+      <c r="R997" s="3"/>
+      <c r="S997" s="3"/>
+      <c r="T997" s="3"/>
+      <c r="U997" s="3"/>
+      <c r="V997" s="3"/>
+      <c r="W997" s="3"/>
+      <c r="X997" s="3"/>
+      <c r="Y997" s="3"/>
+      <c r="Z997" s="3"/>
+    </row>
+    <row r="998" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A998" s="7"/>
+      <c r="B998" s="3"/>
+      <c r="C998" s="3"/>
+      <c r="D998" s="3"/>
+      <c r="E998" s="3"/>
+      <c r="F998" s="3"/>
+      <c r="G998" s="3"/>
+      <c r="H998" s="3"/>
+      <c r="I998" s="3"/>
+      <c r="J998" s="3"/>
+      <c r="K998" s="3"/>
+      <c r="L998" s="3"/>
+      <c r="M998" s="3"/>
+      <c r="N998" s="3"/>
+      <c r="O998" s="3"/>
+      <c r="P998" s="3"/>
+      <c r="Q998" s="3"/>
+      <c r="R998" s="3"/>
+      <c r="S998" s="3"/>
+      <c r="T998" s="3"/>
+      <c r="U998" s="3"/>
+      <c r="V998" s="3"/>
+      <c r="W998" s="3"/>
+      <c r="X998" s="3"/>
+      <c r="Y998" s="3"/>
+      <c r="Z998" s="3"/>
+    </row>
+    <row r="999" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A999" s="7"/>
+      <c r="B999" s="3"/>
+      <c r="C999" s="3"/>
+      <c r="D999" s="3"/>
+      <c r="E999" s="3"/>
+      <c r="F999" s="3"/>
+      <c r="G999" s="3"/>
+      <c r="H999" s="3"/>
+      <c r="I999" s="3"/>
+      <c r="J999" s="3"/>
+      <c r="K999" s="3"/>
+      <c r="L999" s="3"/>
+      <c r="M999" s="3"/>
+      <c r="N999" s="3"/>
+      <c r="O999" s="3"/>
+      <c r="P999" s="3"/>
+      <c r="Q999" s="3"/>
+      <c r="R999" s="3"/>
+      <c r="S999" s="3"/>
+      <c r="T999" s="3"/>
+      <c r="U999" s="3"/>
+      <c r="V999" s="3"/>
+      <c r="W999" s="3"/>
+      <c r="X999" s="3"/>
+      <c r="Y999" s="3"/>
+      <c r="Z999" s="3"/>
+    </row>
+    <row r="1000" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1000" s="7"/>
+      <c r="B1000" s="3"/>
+      <c r="C1000" s="3"/>
+      <c r="D1000" s="3"/>
+      <c r="E1000" s="3"/>
+      <c r="F1000" s="3"/>
+      <c r="G1000" s="3"/>
+      <c r="H1000" s="3"/>
+      <c r="I1000" s="3"/>
+      <c r="J1000" s="3"/>
+      <c r="K1000" s="3"/>
+      <c r="L1000" s="3"/>
+      <c r="M1000" s="3"/>
+      <c r="N1000" s="3"/>
+      <c r="O1000" s="3"/>
+      <c r="P1000" s="3"/>
+      <c r="Q1000" s="3"/>
+      <c r="R1000" s="3"/>
+      <c r="S1000" s="3"/>
+      <c r="T1000" s="3"/>
+      <c r="U1000" s="3"/>
+      <c r="V1000" s="3"/>
+      <c r="W1000" s="3"/>
+      <c r="X1000" s="3"/>
+      <c r="Y1000" s="3"/>
+      <c r="Z1000" s="3"/>
+    </row>
+    <row r="1001" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1001" s="7"/>
+      <c r="B1001" s="3"/>
+      <c r="C1001" s="3"/>
+      <c r="D1001" s="3"/>
+      <c r="E1001" s="3"/>
+      <c r="F1001" s="3"/>
+      <c r="G1001" s="3"/>
+      <c r="H1001" s="3"/>
+      <c r="I1001" s="3"/>
+      <c r="J1001" s="3"/>
+      <c r="K1001" s="3"/>
+      <c r="L1001" s="3"/>
+      <c r="M1001" s="3"/>
+      <c r="N1001" s="3"/>
+      <c r="O1001" s="3"/>
+      <c r="P1001" s="3"/>
+      <c r="Q1001" s="3"/>
+      <c r="R1001" s="3"/>
+      <c r="S1001" s="3"/>
+      <c r="T1001" s="3"/>
+      <c r="U1001" s="3"/>
+      <c r="V1001" s="3"/>
+      <c r="W1001" s="3"/>
+      <c r="X1001" s="3"/>
+      <c r="Y1001" s="3"/>
+      <c r="Z1001" s="3"/>
+    </row>
+    <row r="1002" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1002" s="7"/>
+      <c r="B1002" s="3"/>
+      <c r="C1002" s="3"/>
+      <c r="D1002" s="3"/>
+      <c r="E1002" s="3"/>
+      <c r="F1002" s="3"/>
+      <c r="G1002" s="3"/>
+      <c r="H1002" s="3"/>
+      <c r="I1002" s="3"/>
+      <c r="J1002" s="3"/>
+      <c r="K1002" s="3"/>
+      <c r="L1002" s="3"/>
+      <c r="M1002" s="3"/>
+      <c r="N1002" s="3"/>
+      <c r="O1002" s="3"/>
+      <c r="P1002" s="3"/>
+      <c r="Q1002" s="3"/>
+      <c r="R1002" s="3"/>
+      <c r="S1002" s="3"/>
+      <c r="T1002" s="3"/>
+      <c r="U1002" s="3"/>
+      <c r="V1002" s="3"/>
+      <c r="W1002" s="3"/>
+      <c r="X1002" s="3"/>
+      <c r="Y1002" s="3"/>
+      <c r="Z1002" s="3"/>
+    </row>
+    <row r="1003" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1003" s="7"/>
+      <c r="B1003" s="3"/>
+      <c r="C1003" s="3"/>
+      <c r="D1003" s="3"/>
+      <c r="E1003" s="3"/>
+      <c r="F1003" s="3"/>
+      <c r="G1003" s="3"/>
+      <c r="H1003" s="3"/>
+      <c r="I1003" s="3"/>
+      <c r="J1003" s="3"/>
+      <c r="K1003" s="3"/>
+      <c r="L1003" s="3"/>
+      <c r="M1003" s="3"/>
+      <c r="N1003" s="3"/>
+      <c r="O1003" s="3"/>
+      <c r="P1003" s="3"/>
+      <c r="Q1003" s="3"/>
+      <c r="R1003" s="3"/>
+      <c r="S1003" s="3"/>
+      <c r="T1003" s="3"/>
+      <c r="U1003" s="3"/>
+      <c r="V1003" s="3"/>
+      <c r="W1003" s="3"/>
+      <c r="X1003" s="3"/>
+      <c r="Y1003" s="3"/>
+      <c r="Z1003" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E5">
+  <conditionalFormatting sqref="E10:E13">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+      <formula>"In Progess"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E13">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+      <formula>"To Do"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>"In Progess"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"To Do"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E5">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"In Progess"</formula>
     </cfRule>
@@ -28592,7 +29136,7 @@
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E5">
+  <conditionalFormatting sqref="E3:E5">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"To Do"</formula>
     </cfRule>
@@ -28606,7 +29150,7 @@
           <x14:formula1>
             <xm:f>Param!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E5</xm:sqref>
+          <xm:sqref>E10:E13 E3:E6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -28632,52 +29176,52 @@
     <col min="3" max="3" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:26" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
     </row>
     <row r="2" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1"/>
@@ -28703,21 +29247,21 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>44691</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <f>A3</f>
         <v>44691</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <f>A4-1</f>
         <v>44697</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="3"/>
@@ -28743,22 +29287,22 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <f>A3+7</f>
         <v>44698</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <f>D3+1</f>
         <v>44698</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <f t="shared" ref="D4:D6" si="0">A5-1</f>
         <v>44704</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="3"/>
@@ -28784,22 +29328,22 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <f t="shared" ref="A5:A8" si="1">A4+7</f>
         <v>44705</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <f t="shared" ref="C5:C7" si="2">D4+1</f>
         <v>44705</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f t="shared" si="0"/>
         <v>44711</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="3"/>
@@ -28825,22 +29369,22 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <f t="shared" si="1"/>
         <v>44712</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <f t="shared" si="2"/>
         <v>44712</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
         <v>44718</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="3"/>
@@ -28866,19 +29410,19 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <f t="shared" si="1"/>
         <v>44719</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <f t="shared" si="2"/>
         <v>44719</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="18" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="3"/>
@@ -28904,16 +29448,16 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <f t="shared" si="1"/>
         <v>44726</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="18" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="3"/>

--- a/Final-Project-Plan.xlsx
+++ b/Final-Project-Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenkhoa/Documents/hue-learning/CICD-pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B1F98AD-1938-5A4B-80C4-55F75840376B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B255AEDE-AD6B-4E40-96F6-0D107833511A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2420" yWindow="1420" windowWidth="26120" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>Week</t>
   </si>
@@ -217,9 +217,6 @@
     <t>To do</t>
   </si>
   <si>
-    <t>Summary</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -246,6 +243,72 @@
   <si>
     <t>Oct</t>
   </si>
+  <si>
+    <t>Month 10</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Done topic Azure Infrastructure</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Month 11</t>
+  </si>
+  <si>
+    <t>Month 12</t>
+  </si>
+  <si>
+    <t>Done topic Azure Security</t>
+  </si>
+  <si>
+    <t>Done topic Infrastructure as Code</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Done topic Planning</t>
+  </si>
+  <si>
+    <t>Done topic Continuous Integration</t>
+  </si>
+  <si>
+    <t>Done topic Continuous Delivery</t>
+  </si>
+  <si>
+    <t>Done topic Deploy Infrastructure</t>
+  </si>
+  <si>
+    <t>Done topics Testing</t>
+  </si>
+  <si>
+    <t>Done topic Monitor: Alert, Log Analytics</t>
+  </si>
+  <si>
+    <t>Project 3</t>
+  </si>
+  <si>
+    <t>Project 2</t>
+  </si>
+  <si>
+    <t>Project 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
 </sst>
 </file>
 
@@ -254,7 +317,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -334,8 +397,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,6 +446,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -407,7 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -465,6 +551,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,11 +968,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -890,9 +982,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>61</v>
-      </c>
+      <c r="A1" s="31"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -921,7 +1011,7 @@
     </row>
     <row r="2" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>2</v>
@@ -959,10 +1049,10 @@
     </row>
     <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="27">
         <v>44562</v>
@@ -1035,10 +1125,10 @@
     </row>
     <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="27">
         <v>44743</v>
@@ -1073,10 +1163,10 @@
     </row>
     <row r="6" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="27">
         <v>44835</v>
@@ -1139,7 +1229,7 @@
     </row>
     <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="3"/>
@@ -1207,7 +1297,7 @@
     </row>
     <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>47</v>
@@ -1354,72 +1444,73 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A15" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A16" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>2</v>
+      <c r="C16" s="45" t="s">
+        <v>73</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-    </row>
-    <row r="15" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-    </row>
-    <row r="16" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="str">
-        <f>A10&amp;": "&amp;B10</f>
-        <v>Oct: Complete Nano program: Project 1</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1445,11 +1536,15 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="3" t="s">
-        <v>52</v>
+      <c r="A17" s="46" t="s">
+        <v>71</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="B17" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>74</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1475,11 +1570,15 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="3" t="s">
-        <v>55</v>
+      <c r="A18" s="46" t="s">
+        <v>89</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="B18" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>74</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1505,9 +1604,15 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>74</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1533,12 +1638,15 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="str">
-        <f>A11&amp;": "&amp;B11</f>
-        <v>Nov: Complete Nano program: Project 2</v>
+      <c r="A20" s="46" t="s">
+        <v>91</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1564,10 +1672,8 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="A21" s="42"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1594,10 +1700,10 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="3" t="s">
-        <v>54</v>
+      <c r="A22" s="43" t="s">
+        <v>75</v>
       </c>
+      <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1624,12 +1730,15 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="str">
-        <f>A12&amp;": "&amp;B12</f>
-        <v>Dec: Complete Nano program: Project 3</v>
+      <c r="A23" s="44" t="s">
+        <v>0</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>73</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1655,11 +1764,15 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="3" t="s">
-        <v>57</v>
+      <c r="A24" s="46" t="s">
+        <v>71</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="B24" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>74</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1685,11 +1798,15 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
-        <v>56</v>
+      <c r="A25" s="46" t="s">
+        <v>89</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="B25" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>74</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1715,12 +1832,15 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="str">
-        <f>A13&amp;":"&amp;B13</f>
-        <v>Fer:Get certificate AZ-400 Designing and Implementing Microsoft DevOps Solutions from Microsoft</v>
+      <c r="A26" s="46" t="s">
+        <v>90</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>74</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1746,9 +1866,15 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1774,8 +1900,8 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1802,7 +1928,9 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
+      <c r="A29" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1830,9 +1958,15 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>73</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1858,9 +1992,15 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="7"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>74</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1886,9 +2026,15 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="7"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>74</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1914,9 +2060,15 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="7"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>74</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1942,9 +2094,15 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="7"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1971,7 +2129,7 @@
     </row>
     <row r="35" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
-      <c r="B35" s="3"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1998,65 +2156,72 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="7"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
     </row>
     <row r="37" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
     </row>
     <row r="38" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A38" s="7"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="2" t="str">
+        <f>A10&amp;": "&amp;B10</f>
+        <v>Oct: Complete Nano program: Project 1</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2083,7 +2248,9 @@
     </row>
     <row r="39" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
-      <c r="B39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2111,7 +2278,9 @@
     </row>
     <row r="40" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
-      <c r="B40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2166,7 +2335,10 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="7"/>
+      <c r="A42" s="2" t="str">
+        <f>A11&amp;": "&amp;B11</f>
+        <v>Nov: Complete Nano program: Project 2</v>
+      </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2195,7 +2367,9 @@
     </row>
     <row r="43" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
-      <c r="B43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2223,7 +2397,9 @@
     </row>
     <row r="44" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
-      <c r="B44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2250,7 +2426,10 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="7"/>
+      <c r="A45" s="2" t="str">
+        <f>A12&amp;": "&amp;B12</f>
+        <v>Dec: Complete Nano program: Project 3</v>
+      </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2279,7 +2458,9 @@
     </row>
     <row r="46" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
-      <c r="B46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2306,8 +2487,10 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="7"/>
-      <c r="B47" s="3"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2334,7 +2517,10 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="7"/>
+      <c r="A48" s="2" t="str">
+        <f>A13&amp;":"&amp;B13</f>
+        <v>Fer:Get certificate AZ-400 Designing and Implementing Microsoft DevOps Solutions from Microsoft</v>
+      </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2362,7 +2548,7 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="26"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2446,7 +2632,7 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="3"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2642,7 +2828,7 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="7"/>
+      <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2978,7 +3164,7 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A71" s="7"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -3062,7 +3248,7 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="7"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -29101,7 +29287,624 @@
       <c r="Y1003" s="3"/>
       <c r="Z1003" s="3"/>
     </row>
+    <row r="1004" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1004" s="7"/>
+      <c r="B1004" s="3"/>
+      <c r="C1004" s="3"/>
+      <c r="D1004" s="3"/>
+      <c r="E1004" s="3"/>
+      <c r="F1004" s="3"/>
+      <c r="G1004" s="3"/>
+      <c r="H1004" s="3"/>
+      <c r="I1004" s="3"/>
+      <c r="J1004" s="3"/>
+      <c r="K1004" s="3"/>
+      <c r="L1004" s="3"/>
+      <c r="M1004" s="3"/>
+      <c r="N1004" s="3"/>
+      <c r="O1004" s="3"/>
+      <c r="P1004" s="3"/>
+      <c r="Q1004" s="3"/>
+      <c r="R1004" s="3"/>
+      <c r="S1004" s="3"/>
+      <c r="T1004" s="3"/>
+      <c r="U1004" s="3"/>
+      <c r="V1004" s="3"/>
+      <c r="W1004" s="3"/>
+      <c r="X1004" s="3"/>
+      <c r="Y1004" s="3"/>
+      <c r="Z1004" s="3"/>
+    </row>
+    <row r="1005" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1005" s="7"/>
+      <c r="B1005" s="3"/>
+      <c r="C1005" s="3"/>
+      <c r="D1005" s="3"/>
+      <c r="E1005" s="3"/>
+      <c r="F1005" s="3"/>
+      <c r="G1005" s="3"/>
+      <c r="H1005" s="3"/>
+      <c r="I1005" s="3"/>
+      <c r="J1005" s="3"/>
+      <c r="K1005" s="3"/>
+      <c r="L1005" s="3"/>
+      <c r="M1005" s="3"/>
+      <c r="N1005" s="3"/>
+      <c r="O1005" s="3"/>
+      <c r="P1005" s="3"/>
+      <c r="Q1005" s="3"/>
+      <c r="R1005" s="3"/>
+      <c r="S1005" s="3"/>
+      <c r="T1005" s="3"/>
+      <c r="U1005" s="3"/>
+      <c r="V1005" s="3"/>
+      <c r="W1005" s="3"/>
+      <c r="X1005" s="3"/>
+      <c r="Y1005" s="3"/>
+      <c r="Z1005" s="3"/>
+    </row>
+    <row r="1006" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1006" s="7"/>
+      <c r="B1006" s="3"/>
+      <c r="C1006" s="3"/>
+      <c r="D1006" s="3"/>
+      <c r="E1006" s="3"/>
+      <c r="F1006" s="3"/>
+      <c r="G1006" s="3"/>
+      <c r="H1006" s="3"/>
+      <c r="I1006" s="3"/>
+      <c r="J1006" s="3"/>
+      <c r="K1006" s="3"/>
+      <c r="L1006" s="3"/>
+      <c r="M1006" s="3"/>
+      <c r="N1006" s="3"/>
+      <c r="O1006" s="3"/>
+      <c r="P1006" s="3"/>
+      <c r="Q1006" s="3"/>
+      <c r="R1006" s="3"/>
+      <c r="S1006" s="3"/>
+      <c r="T1006" s="3"/>
+      <c r="U1006" s="3"/>
+      <c r="V1006" s="3"/>
+      <c r="W1006" s="3"/>
+      <c r="X1006" s="3"/>
+      <c r="Y1006" s="3"/>
+      <c r="Z1006" s="3"/>
+    </row>
+    <row r="1007" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1007" s="7"/>
+      <c r="B1007" s="3"/>
+      <c r="C1007" s="3"/>
+      <c r="D1007" s="3"/>
+      <c r="E1007" s="3"/>
+      <c r="F1007" s="3"/>
+      <c r="G1007" s="3"/>
+      <c r="H1007" s="3"/>
+      <c r="I1007" s="3"/>
+      <c r="J1007" s="3"/>
+      <c r="K1007" s="3"/>
+      <c r="L1007" s="3"/>
+      <c r="M1007" s="3"/>
+      <c r="N1007" s="3"/>
+      <c r="O1007" s="3"/>
+      <c r="P1007" s="3"/>
+      <c r="Q1007" s="3"/>
+      <c r="R1007" s="3"/>
+      <c r="S1007" s="3"/>
+      <c r="T1007" s="3"/>
+      <c r="U1007" s="3"/>
+      <c r="V1007" s="3"/>
+      <c r="W1007" s="3"/>
+      <c r="X1007" s="3"/>
+      <c r="Y1007" s="3"/>
+      <c r="Z1007" s="3"/>
+    </row>
+    <row r="1008" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1008" s="7"/>
+      <c r="B1008" s="3"/>
+      <c r="C1008" s="3"/>
+      <c r="D1008" s="3"/>
+      <c r="E1008" s="3"/>
+      <c r="F1008" s="3"/>
+      <c r="G1008" s="3"/>
+      <c r="H1008" s="3"/>
+      <c r="I1008" s="3"/>
+      <c r="J1008" s="3"/>
+      <c r="K1008" s="3"/>
+      <c r="L1008" s="3"/>
+      <c r="M1008" s="3"/>
+      <c r="N1008" s="3"/>
+      <c r="O1008" s="3"/>
+      <c r="P1008" s="3"/>
+      <c r="Q1008" s="3"/>
+      <c r="R1008" s="3"/>
+      <c r="S1008" s="3"/>
+      <c r="T1008" s="3"/>
+      <c r="U1008" s="3"/>
+      <c r="V1008" s="3"/>
+      <c r="W1008" s="3"/>
+      <c r="X1008" s="3"/>
+      <c r="Y1008" s="3"/>
+      <c r="Z1008" s="3"/>
+    </row>
+    <row r="1009" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1009" s="7"/>
+      <c r="B1009" s="3"/>
+      <c r="C1009" s="3"/>
+      <c r="D1009" s="3"/>
+      <c r="E1009" s="3"/>
+      <c r="F1009" s="3"/>
+      <c r="G1009" s="3"/>
+      <c r="H1009" s="3"/>
+      <c r="I1009" s="3"/>
+      <c r="J1009" s="3"/>
+      <c r="K1009" s="3"/>
+      <c r="L1009" s="3"/>
+      <c r="M1009" s="3"/>
+      <c r="N1009" s="3"/>
+      <c r="O1009" s="3"/>
+      <c r="P1009" s="3"/>
+      <c r="Q1009" s="3"/>
+      <c r="R1009" s="3"/>
+      <c r="S1009" s="3"/>
+      <c r="T1009" s="3"/>
+      <c r="U1009" s="3"/>
+      <c r="V1009" s="3"/>
+      <c r="W1009" s="3"/>
+      <c r="X1009" s="3"/>
+      <c r="Y1009" s="3"/>
+      <c r="Z1009" s="3"/>
+    </row>
+    <row r="1010" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1010" s="7"/>
+      <c r="B1010" s="3"/>
+      <c r="C1010" s="3"/>
+      <c r="D1010" s="3"/>
+      <c r="E1010" s="3"/>
+      <c r="F1010" s="3"/>
+      <c r="G1010" s="3"/>
+      <c r="H1010" s="3"/>
+      <c r="I1010" s="3"/>
+      <c r="J1010" s="3"/>
+      <c r="K1010" s="3"/>
+      <c r="L1010" s="3"/>
+      <c r="M1010" s="3"/>
+      <c r="N1010" s="3"/>
+      <c r="O1010" s="3"/>
+      <c r="P1010" s="3"/>
+      <c r="Q1010" s="3"/>
+      <c r="R1010" s="3"/>
+      <c r="S1010" s="3"/>
+      <c r="T1010" s="3"/>
+      <c r="U1010" s="3"/>
+      <c r="V1010" s="3"/>
+      <c r="W1010" s="3"/>
+      <c r="X1010" s="3"/>
+      <c r="Y1010" s="3"/>
+      <c r="Z1010" s="3"/>
+    </row>
+    <row r="1011" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1011" s="7"/>
+      <c r="B1011" s="3"/>
+      <c r="C1011" s="3"/>
+      <c r="D1011" s="3"/>
+      <c r="E1011" s="3"/>
+      <c r="F1011" s="3"/>
+      <c r="G1011" s="3"/>
+      <c r="H1011" s="3"/>
+      <c r="I1011" s="3"/>
+      <c r="J1011" s="3"/>
+      <c r="K1011" s="3"/>
+      <c r="L1011" s="3"/>
+      <c r="M1011" s="3"/>
+      <c r="N1011" s="3"/>
+      <c r="O1011" s="3"/>
+      <c r="P1011" s="3"/>
+      <c r="Q1011" s="3"/>
+      <c r="R1011" s="3"/>
+      <c r="S1011" s="3"/>
+      <c r="T1011" s="3"/>
+      <c r="U1011" s="3"/>
+      <c r="V1011" s="3"/>
+      <c r="W1011" s="3"/>
+      <c r="X1011" s="3"/>
+      <c r="Y1011" s="3"/>
+      <c r="Z1011" s="3"/>
+    </row>
+    <row r="1012" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1012" s="7"/>
+      <c r="B1012" s="3"/>
+      <c r="C1012" s="3"/>
+      <c r="D1012" s="3"/>
+      <c r="E1012" s="3"/>
+      <c r="F1012" s="3"/>
+      <c r="G1012" s="3"/>
+      <c r="H1012" s="3"/>
+      <c r="I1012" s="3"/>
+      <c r="J1012" s="3"/>
+      <c r="K1012" s="3"/>
+      <c r="L1012" s="3"/>
+      <c r="M1012" s="3"/>
+      <c r="N1012" s="3"/>
+      <c r="O1012" s="3"/>
+      <c r="P1012" s="3"/>
+      <c r="Q1012" s="3"/>
+      <c r="R1012" s="3"/>
+      <c r="S1012" s="3"/>
+      <c r="T1012" s="3"/>
+      <c r="U1012" s="3"/>
+      <c r="V1012" s="3"/>
+      <c r="W1012" s="3"/>
+      <c r="X1012" s="3"/>
+      <c r="Y1012" s="3"/>
+      <c r="Z1012" s="3"/>
+    </row>
+    <row r="1013" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1013" s="7"/>
+      <c r="B1013" s="3"/>
+      <c r="C1013" s="3"/>
+      <c r="D1013" s="3"/>
+      <c r="E1013" s="3"/>
+      <c r="F1013" s="3"/>
+      <c r="G1013" s="3"/>
+      <c r="H1013" s="3"/>
+      <c r="I1013" s="3"/>
+      <c r="J1013" s="3"/>
+      <c r="K1013" s="3"/>
+      <c r="L1013" s="3"/>
+      <c r="M1013" s="3"/>
+      <c r="N1013" s="3"/>
+      <c r="O1013" s="3"/>
+      <c r="P1013" s="3"/>
+      <c r="Q1013" s="3"/>
+      <c r="R1013" s="3"/>
+      <c r="S1013" s="3"/>
+      <c r="T1013" s="3"/>
+      <c r="U1013" s="3"/>
+      <c r="V1013" s="3"/>
+      <c r="W1013" s="3"/>
+      <c r="X1013" s="3"/>
+      <c r="Y1013" s="3"/>
+      <c r="Z1013" s="3"/>
+    </row>
+    <row r="1014" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1014" s="7"/>
+      <c r="B1014" s="3"/>
+      <c r="C1014" s="3"/>
+      <c r="D1014" s="3"/>
+      <c r="E1014" s="3"/>
+      <c r="F1014" s="3"/>
+      <c r="G1014" s="3"/>
+      <c r="H1014" s="3"/>
+      <c r="I1014" s="3"/>
+      <c r="J1014" s="3"/>
+      <c r="K1014" s="3"/>
+      <c r="L1014" s="3"/>
+      <c r="M1014" s="3"/>
+      <c r="N1014" s="3"/>
+      <c r="O1014" s="3"/>
+      <c r="P1014" s="3"/>
+      <c r="Q1014" s="3"/>
+      <c r="R1014" s="3"/>
+      <c r="S1014" s="3"/>
+      <c r="T1014" s="3"/>
+      <c r="U1014" s="3"/>
+      <c r="V1014" s="3"/>
+      <c r="W1014" s="3"/>
+      <c r="X1014" s="3"/>
+      <c r="Y1014" s="3"/>
+      <c r="Z1014" s="3"/>
+    </row>
+    <row r="1015" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1015" s="7"/>
+      <c r="B1015" s="3"/>
+      <c r="C1015" s="3"/>
+      <c r="D1015" s="3"/>
+      <c r="E1015" s="3"/>
+      <c r="F1015" s="3"/>
+      <c r="G1015" s="3"/>
+      <c r="H1015" s="3"/>
+      <c r="I1015" s="3"/>
+      <c r="J1015" s="3"/>
+      <c r="K1015" s="3"/>
+      <c r="L1015" s="3"/>
+      <c r="M1015" s="3"/>
+      <c r="N1015" s="3"/>
+      <c r="O1015" s="3"/>
+      <c r="P1015" s="3"/>
+      <c r="Q1015" s="3"/>
+      <c r="R1015" s="3"/>
+      <c r="S1015" s="3"/>
+      <c r="T1015" s="3"/>
+      <c r="U1015" s="3"/>
+      <c r="V1015" s="3"/>
+      <c r="W1015" s="3"/>
+      <c r="X1015" s="3"/>
+      <c r="Y1015" s="3"/>
+      <c r="Z1015" s="3"/>
+    </row>
+    <row r="1016" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1016" s="7"/>
+      <c r="B1016" s="3"/>
+      <c r="C1016" s="3"/>
+      <c r="D1016" s="3"/>
+      <c r="E1016" s="3"/>
+      <c r="F1016" s="3"/>
+      <c r="G1016" s="3"/>
+      <c r="H1016" s="3"/>
+      <c r="I1016" s="3"/>
+      <c r="J1016" s="3"/>
+      <c r="K1016" s="3"/>
+      <c r="L1016" s="3"/>
+      <c r="M1016" s="3"/>
+      <c r="N1016" s="3"/>
+      <c r="O1016" s="3"/>
+      <c r="P1016" s="3"/>
+      <c r="Q1016" s="3"/>
+      <c r="R1016" s="3"/>
+      <c r="S1016" s="3"/>
+      <c r="T1016" s="3"/>
+      <c r="U1016" s="3"/>
+      <c r="V1016" s="3"/>
+      <c r="W1016" s="3"/>
+      <c r="X1016" s="3"/>
+      <c r="Y1016" s="3"/>
+      <c r="Z1016" s="3"/>
+    </row>
+    <row r="1017" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1017" s="7"/>
+      <c r="B1017" s="3"/>
+      <c r="C1017" s="3"/>
+      <c r="D1017" s="3"/>
+      <c r="E1017" s="3"/>
+      <c r="F1017" s="3"/>
+      <c r="G1017" s="3"/>
+      <c r="H1017" s="3"/>
+      <c r="I1017" s="3"/>
+      <c r="J1017" s="3"/>
+      <c r="K1017" s="3"/>
+      <c r="L1017" s="3"/>
+      <c r="M1017" s="3"/>
+      <c r="N1017" s="3"/>
+      <c r="O1017" s="3"/>
+      <c r="P1017" s="3"/>
+      <c r="Q1017" s="3"/>
+      <c r="R1017" s="3"/>
+      <c r="S1017" s="3"/>
+      <c r="T1017" s="3"/>
+      <c r="U1017" s="3"/>
+      <c r="V1017" s="3"/>
+      <c r="W1017" s="3"/>
+      <c r="X1017" s="3"/>
+      <c r="Y1017" s="3"/>
+      <c r="Z1017" s="3"/>
+    </row>
+    <row r="1018" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1018" s="7"/>
+      <c r="B1018" s="3"/>
+      <c r="C1018" s="3"/>
+      <c r="D1018" s="3"/>
+      <c r="E1018" s="3"/>
+      <c r="F1018" s="3"/>
+      <c r="G1018" s="3"/>
+      <c r="H1018" s="3"/>
+      <c r="I1018" s="3"/>
+      <c r="J1018" s="3"/>
+      <c r="K1018" s="3"/>
+      <c r="L1018" s="3"/>
+      <c r="M1018" s="3"/>
+      <c r="N1018" s="3"/>
+      <c r="O1018" s="3"/>
+      <c r="P1018" s="3"/>
+      <c r="Q1018" s="3"/>
+      <c r="R1018" s="3"/>
+      <c r="S1018" s="3"/>
+      <c r="T1018" s="3"/>
+      <c r="U1018" s="3"/>
+      <c r="V1018" s="3"/>
+      <c r="W1018" s="3"/>
+      <c r="X1018" s="3"/>
+      <c r="Y1018" s="3"/>
+      <c r="Z1018" s="3"/>
+    </row>
+    <row r="1019" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1019" s="7"/>
+      <c r="B1019" s="3"/>
+      <c r="C1019" s="3"/>
+      <c r="D1019" s="3"/>
+      <c r="E1019" s="3"/>
+      <c r="F1019" s="3"/>
+      <c r="G1019" s="3"/>
+      <c r="H1019" s="3"/>
+      <c r="I1019" s="3"/>
+      <c r="J1019" s="3"/>
+      <c r="K1019" s="3"/>
+      <c r="L1019" s="3"/>
+      <c r="M1019" s="3"/>
+      <c r="N1019" s="3"/>
+      <c r="O1019" s="3"/>
+      <c r="P1019" s="3"/>
+      <c r="Q1019" s="3"/>
+      <c r="R1019" s="3"/>
+      <c r="S1019" s="3"/>
+      <c r="T1019" s="3"/>
+      <c r="U1019" s="3"/>
+      <c r="V1019" s="3"/>
+      <c r="W1019" s="3"/>
+      <c r="X1019" s="3"/>
+      <c r="Y1019" s="3"/>
+      <c r="Z1019" s="3"/>
+    </row>
+    <row r="1020" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1020" s="7"/>
+      <c r="B1020" s="3"/>
+      <c r="C1020" s="3"/>
+      <c r="D1020" s="3"/>
+      <c r="E1020" s="3"/>
+      <c r="F1020" s="3"/>
+      <c r="G1020" s="3"/>
+      <c r="H1020" s="3"/>
+      <c r="I1020" s="3"/>
+      <c r="J1020" s="3"/>
+      <c r="K1020" s="3"/>
+      <c r="L1020" s="3"/>
+      <c r="M1020" s="3"/>
+      <c r="N1020" s="3"/>
+      <c r="O1020" s="3"/>
+      <c r="P1020" s="3"/>
+      <c r="Q1020" s="3"/>
+      <c r="R1020" s="3"/>
+      <c r="S1020" s="3"/>
+      <c r="T1020" s="3"/>
+      <c r="U1020" s="3"/>
+      <c r="V1020" s="3"/>
+      <c r="W1020" s="3"/>
+      <c r="X1020" s="3"/>
+      <c r="Y1020" s="3"/>
+      <c r="Z1020" s="3"/>
+    </row>
+    <row r="1021" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1021" s="7"/>
+      <c r="B1021" s="3"/>
+      <c r="C1021" s="3"/>
+      <c r="D1021" s="3"/>
+      <c r="E1021" s="3"/>
+      <c r="F1021" s="3"/>
+      <c r="G1021" s="3"/>
+      <c r="H1021" s="3"/>
+      <c r="I1021" s="3"/>
+      <c r="J1021" s="3"/>
+      <c r="K1021" s="3"/>
+      <c r="L1021" s="3"/>
+      <c r="M1021" s="3"/>
+      <c r="N1021" s="3"/>
+      <c r="O1021" s="3"/>
+      <c r="P1021" s="3"/>
+      <c r="Q1021" s="3"/>
+      <c r="R1021" s="3"/>
+      <c r="S1021" s="3"/>
+      <c r="T1021" s="3"/>
+      <c r="U1021" s="3"/>
+      <c r="V1021" s="3"/>
+      <c r="W1021" s="3"/>
+      <c r="X1021" s="3"/>
+      <c r="Y1021" s="3"/>
+      <c r="Z1021" s="3"/>
+    </row>
+    <row r="1022" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1022" s="7"/>
+      <c r="B1022" s="3"/>
+      <c r="C1022" s="3"/>
+      <c r="D1022" s="3"/>
+      <c r="E1022" s="3"/>
+      <c r="F1022" s="3"/>
+      <c r="G1022" s="3"/>
+      <c r="H1022" s="3"/>
+      <c r="I1022" s="3"/>
+      <c r="J1022" s="3"/>
+      <c r="K1022" s="3"/>
+      <c r="L1022" s="3"/>
+      <c r="M1022" s="3"/>
+      <c r="N1022" s="3"/>
+      <c r="O1022" s="3"/>
+      <c r="P1022" s="3"/>
+      <c r="Q1022" s="3"/>
+      <c r="R1022" s="3"/>
+      <c r="S1022" s="3"/>
+      <c r="T1022" s="3"/>
+      <c r="U1022" s="3"/>
+      <c r="V1022" s="3"/>
+      <c r="W1022" s="3"/>
+      <c r="X1022" s="3"/>
+      <c r="Y1022" s="3"/>
+      <c r="Z1022" s="3"/>
+    </row>
+    <row r="1023" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1023" s="7"/>
+      <c r="B1023" s="3"/>
+      <c r="C1023" s="3"/>
+      <c r="D1023" s="3"/>
+      <c r="E1023" s="3"/>
+      <c r="F1023" s="3"/>
+      <c r="G1023" s="3"/>
+      <c r="H1023" s="3"/>
+      <c r="I1023" s="3"/>
+      <c r="J1023" s="3"/>
+      <c r="K1023" s="3"/>
+      <c r="L1023" s="3"/>
+      <c r="M1023" s="3"/>
+      <c r="N1023" s="3"/>
+      <c r="O1023" s="3"/>
+      <c r="P1023" s="3"/>
+      <c r="Q1023" s="3"/>
+      <c r="R1023" s="3"/>
+      <c r="S1023" s="3"/>
+      <c r="T1023" s="3"/>
+      <c r="U1023" s="3"/>
+      <c r="V1023" s="3"/>
+      <c r="W1023" s="3"/>
+      <c r="X1023" s="3"/>
+      <c r="Y1023" s="3"/>
+      <c r="Z1023" s="3"/>
+    </row>
+    <row r="1024" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1024" s="7"/>
+      <c r="B1024" s="3"/>
+      <c r="C1024" s="3"/>
+      <c r="D1024" s="3"/>
+      <c r="E1024" s="3"/>
+      <c r="F1024" s="3"/>
+      <c r="G1024" s="3"/>
+      <c r="H1024" s="3"/>
+      <c r="I1024" s="3"/>
+      <c r="J1024" s="3"/>
+      <c r="K1024" s="3"/>
+      <c r="L1024" s="3"/>
+      <c r="M1024" s="3"/>
+      <c r="N1024" s="3"/>
+      <c r="O1024" s="3"/>
+      <c r="P1024" s="3"/>
+      <c r="Q1024" s="3"/>
+      <c r="R1024" s="3"/>
+      <c r="S1024" s="3"/>
+      <c r="T1024" s="3"/>
+      <c r="U1024" s="3"/>
+      <c r="V1024" s="3"/>
+      <c r="W1024" s="3"/>
+      <c r="X1024" s="3"/>
+      <c r="Y1024" s="3"/>
+      <c r="Z1024" s="3"/>
+    </row>
+    <row r="1025" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1025" s="7"/>
+      <c r="B1025" s="3"/>
+      <c r="C1025" s="3"/>
+      <c r="D1025" s="3"/>
+      <c r="E1025" s="3"/>
+      <c r="F1025" s="3"/>
+      <c r="G1025" s="3"/>
+      <c r="H1025" s="3"/>
+      <c r="I1025" s="3"/>
+      <c r="J1025" s="3"/>
+      <c r="K1025" s="3"/>
+      <c r="L1025" s="3"/>
+      <c r="M1025" s="3"/>
+      <c r="N1025" s="3"/>
+      <c r="O1025" s="3"/>
+      <c r="P1025" s="3"/>
+      <c r="Q1025" s="3"/>
+      <c r="R1025" s="3"/>
+      <c r="S1025" s="3"/>
+      <c r="T1025" s="3"/>
+      <c r="U1025" s="3"/>
+      <c r="V1025" s="3"/>
+      <c r="W1025" s="3"/>
+      <c r="X1025" s="3"/>
+      <c r="Y1025" s="3"/>
+      <c r="Z1025" s="3"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="E10:E13">
     <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
       <formula>"In Progess"</formula>
@@ -29150,7 +29953,7 @@
           <x14:formula1>
             <xm:f>Param!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E10:E13 E3:E6</xm:sqref>
+          <xm:sqref>E3:E6 E10:E13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
